--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>索引</t>
   </si>
@@ -61,9 +61,15 @@
     <t>分辨率</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>语言切换</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>背景音乐</t>
   </si>
   <si>
@@ -73,13 +79,13 @@
     <t>背景音乐音量</t>
   </si>
   <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>声音特效</t>
   </si>
   <si>
     <t>声音特效音音量</t>
-  </si>
-  <si>
-    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1059,7 +1065,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1067,178 +1073,178 @@
     <col min="1" max="1" width="16.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="19.2333333333333" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>100001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>100004</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>100002</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>100005</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>100003</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>100006</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>100004</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>100007</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>100005</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>100008</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>100006</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>100009</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>100007</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>100010</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>100008</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>100011</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
